--- a/water_quality_prediction/data/mini_sample/가평_2019.xlsx
+++ b/water_quality_prediction/data/mini_sample/가평_2019.xlsx
@@ -431,7 +431,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -442,11 +442,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -524,10 +524,10 @@
         <v>0.5</v>
       </c>
       <c r="H2" s="1">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>1.7709999999999999</v>
+        <v>11</v>
       </c>
       <c r="J2" s="1">
         <v>4.0000000000000001E-3</v>
@@ -562,10 +562,10 @@
         <v>0.6</v>
       </c>
       <c r="H3" s="1">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1">
-        <v>1.8120000000000001</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1">
         <v>5.0000000000000001E-3</v>
@@ -600,10 +600,10 @@
         <v>0.4</v>
       </c>
       <c r="H4" s="1">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1">
-        <v>1.7649999999999999</v>
+        <v>33</v>
       </c>
       <c r="J4" s="1">
         <v>3.0000000000000001E-3</v>
@@ -638,10 +638,10 @@
         <v>0.5</v>
       </c>
       <c r="H5" s="1">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="I5" s="1">
-        <v>1.7749999999999999</v>
+        <v>44</v>
       </c>
       <c r="J5" s="1">
         <v>5.0000000000000001E-3</v>
@@ -676,10 +676,10 @@
         <v>0.5</v>
       </c>
       <c r="H6" s="1">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="I6" s="1">
-        <v>1.774</v>
+        <v>55</v>
       </c>
       <c r="J6" s="1">
         <v>4.0000000000000001E-3</v>
@@ -690,6 +690,9 @@
       <c r="L6" s="1">
         <v>-0.4</v>
       </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="I7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
